--- a/data_mining/car_brands_and_models_links_Skoda.xlsx
+++ b/data_mining/car_brands_and_models_links_Skoda.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo49d&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poucn1&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo4cr&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poucqy&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo4g0&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poucv0&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo4jr&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poucz7&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo4p2&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poud2k&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo4t0&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poud5m&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo4wn&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poud8w&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo4zy&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudc2&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo53i&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudg8&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo565&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudjp&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo59m&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudmy&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo5d9&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudqj&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo5gs&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudu1&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peo5l2&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudx0&amp;f1=1</t>
         </is>
       </c>
     </row>

--- a/data_mining/car_brands_and_models_links_Skoda.xlsx
+++ b/data_mining/car_brands_and_models_links_Skoda.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poucn1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69moa&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poucqy&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69mrq&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poucv0&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69muo&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poucz7&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69mya&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poud2k&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69n2a&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poud5m&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69n6k&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poud8w&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69nae&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudc2&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69ncv&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudg8&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69ng4&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudjp&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69niz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudmy&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69nlp&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudqj&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69nph&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudu1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69nt2&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poudx0&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q69nvv&amp;f1=1</t>
         </is>
       </c>
     </row>
